--- a/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
+++ b/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TACHES</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>Discussion maquette site</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>analyse de trame nao via wireshark Partie 2</t>
+  </si>
+  <si>
+    <t>analyse de trame nao via wireshark Partie 1</t>
+  </si>
+  <si>
+    <t>Site Internet création de quelques pages à partir des maquettes</t>
   </si>
 </sst>
 </file>
@@ -452,7 +464,7 @@
   <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,19 +619,37 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>42326</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>42327</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>42328</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>

--- a/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
+++ b/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>TACHES</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Site Internet création de quelques pages à partir des maquettes</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Ajout des dernières pages du site avec leurs laisons correspondantes, réorganisation des fichiers et renommage de certain. Amélioration du visuel du site</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,9 +658,15 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
+        <v>42329</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>

--- a/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
+++ b/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$2:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$K$32</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TACHES</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Ajout des dernières pages du site avec leurs laisons correspondantes, réorganisation des fichiers et renommage de certain. Amélioration du visuel du site</t>
+  </si>
+  <si>
+    <t>Ajout de l'affichage des listes des commandes et périphérique depuis la BDD</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,9 +672,15 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
+        <v>42329</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>

--- a/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
+++ b/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>TACHES</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ajout de l'affichage des listes des commandes et périphérique depuis la BDD</t>
+  </si>
+  <si>
+    <t>Ajout de la possibilité d'ajouter/supprimer des actions/périphérique via l'accès à la BDD</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,9 +686,15 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42329</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>

--- a/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
+++ b/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$2:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$K$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -88,10 +88,10 @@
     <t>Ajout des dernières pages du site avec leurs laisons correspondantes, réorganisation des fichiers et renommage de certain. Amélioration du visuel du site</t>
   </si>
   <si>
-    <t>Ajout de l'affichage des listes des commandes et périphérique depuis la BDD</t>
-  </si>
-  <si>
-    <t>Ajout de la possibilité d'ajouter/supprimer des actions/périphérique via l'accès à la BDD</t>
+    <t>Réorganisation de page / Centrage de certains élément/ refactoring / amélioration des listes</t>
+  </si>
+  <si>
+    <t>amélioration du header et refacto avec un peu de gestion de connexion d'un compte</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,10 +679,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="3">
-        <v>42329</v>
+        <v>42330</v>
       </c>
       <c r="D19" s="2">
-        <v>0.45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
         <v>23</v>
       </c>
       <c r="C20" s="3">
-        <v>42329</v>
+        <v>42330</v>
       </c>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">

--- a/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
+++ b/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>TACHES</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>amélioration du header et refacto avec un peu de gestion de connexion d'un compte</t>
+  </si>
+  <si>
+    <t>Ajout de la des mofications des peripheriques  et actions</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,7 +479,7 @@
   <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,9 +700,15 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <v>42333</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>

--- a/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
+++ b/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$2:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$K$32</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>TACHES</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>Ajout de la des mofications des peripheriques  et actions</t>
+  </si>
+  <si>
+    <t>Installation d'un raspberry de test</t>
+  </si>
+  <si>
+    <t>Mise a jours des chemins des images + ajout de la possibilité dans la page admin des liste des actions d'afficher ou non la description  + refacto de code</t>
+  </si>
+  <si>
+    <t>Ajout de la page  viewAdministrationGuide et ajout de l'affichage des pdfs et idem pour viewguide</t>
   </si>
 </sst>
 </file>
@@ -479,13 +488,13 @@
   <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
   </cols>
@@ -646,21 +655,21 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3">
-        <v>42327</v>
+        <v>42326</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
-        <v>42328</v>
+        <v>42327</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
@@ -668,62 +677,80 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3">
-        <v>42329</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>42328</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3">
-        <v>42330</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3</v>
+        <v>42329</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3">
         <v>42330</v>
       </c>
       <c r="D20" s="2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3">
+        <v>42330</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>42333</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="2">
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3">
+        <v>42334</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3">
+        <v>42334</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>

--- a/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
+++ b/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>TACHES</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Ajout de la page  viewAdministrationGuide et ajout de l'affichage des pdfs et idem pour viewguide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preparation travaux a venir </t>
+  </si>
+  <si>
+    <t>partie model (dossier data) les controlleurs avec requete sql 2</t>
+  </si>
+  <si>
+    <t>partie model (dossier data) les controlleurs avec requete sql 1</t>
   </si>
 </sst>
 </file>
@@ -241,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,7 +285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,19 +762,37 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3">
+        <v>42338</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3">
+        <v>42339</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3">
+        <v>42341</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>

--- a/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
+++ b/documents/PMP/Suivi_du_projet/Suivi_vautier.xlsx
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$B$2:$D$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$K$32</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>TACHES</t>
   </si>
@@ -113,6 +113,42 @@
   </si>
   <si>
     <t>partie model (dossier data) les controlleurs avec requete sql 1</t>
+  </si>
+  <si>
+    <t>partie model (dossier data) les controlleurs avec requete sql 3</t>
+  </si>
+  <si>
+    <t>requete sql plus lecture de code</t>
+  </si>
+  <si>
+    <t>Mise à jours du cahier des charges V2</t>
+  </si>
+  <si>
+    <t>Création des documentations avec plan</t>
+  </si>
+  <si>
+    <t>Rédaction documentation utilisateur</t>
+  </si>
+  <si>
+    <t>Doc , recherche sur capteur, correction bdd</t>
+  </si>
+  <si>
+    <t>Documentation utilisateur, ajout de template</t>
+  </si>
+  <si>
+    <t>Modification model de page , recherche sur les capteur, bilan des tâches restantes</t>
+  </si>
+  <si>
+    <t>Experimentation envoie de commandes (via script pyton)</t>
+  </si>
+  <si>
+    <t>Ecriture de bath python pour eteindre le robot et tentative d'execution via php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps : </t>
+  </si>
+  <si>
+    <t>Modification du header(css,model template) +  bdd + modification de requetes</t>
   </si>
 </sst>
 </file>
@@ -176,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -188,6 +224,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -494,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D35"/>
+  <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +547,7 @@
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -518,8 +557,15 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <f>SUM(D:D)</f>
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -530,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -541,7 +587,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -552,7 +598,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -563,7 +609,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -574,7 +620,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -585,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -596,7 +642,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -607,7 +653,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -618,7 +664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -629,7 +675,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -640,7 +686,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -651,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -662,7 +708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -670,7 +716,7 @@
         <v>42326</v>
       </c>
       <c r="D16" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -725,7 +771,7 @@
         <v>42330</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -758,7 +804,7 @@
         <v>42334</v>
       </c>
       <c r="D24" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -795,44 +841,130 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3">
+        <v>42342</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42345</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3">
+        <v>42348</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3">
+        <v>42009</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3">
+        <v>42010</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3">
+        <v>42013</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3">
+        <v>42016</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3">
+        <v>42016</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3">
+        <v>42017</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="3">
+        <v>42018</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3">
+        <v>42019</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:D15"/>
